--- a/data/trans_dic/IP2005-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>87,44%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,09; 89,61</t>
+          <t>84,12; 91,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,79; 89,69</t>
+          <t>85,54; 92,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,88; 89,01</t>
+          <t>88,85; 94,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,02; 91,11</t>
+          <t>83,35; 91,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,98; 89,54</t>
+          <t>85,68; 92,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,76; 90,73</t>
+          <t>85,19; 92,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,03; 93,69</t>
+          <t>89,1; 94,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,26; 92,29</t>
+          <t>82,26; 90,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,23; 88,95</t>
+          <t>85,88; 90,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,91; 89,2</t>
+          <t>86,28; 91,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85,83; 90,53</t>
+          <t>89,82; 93,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,54; 90,83</t>
+          <t>84,24; 90,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>86,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>89,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>86,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>86,92%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>88,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>89,33%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>88,83%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,12; 91,09</t>
+          <t>83,09; 89,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,54; 92,6</t>
+          <t>82,79; 89,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,85; 94,54</t>
+          <t>81,88; 89,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,35; 91,28</t>
+          <t>85,02; 91,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,68; 92,59</t>
+          <t>82,98; 89,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,19; 92,29</t>
+          <t>83,76; 90,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,1; 94,97</t>
+          <t>88,03; 93,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,26; 90,59</t>
+          <t>86,26; 92,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,88; 90,9</t>
+          <t>84,23; 88,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,28; 91,47</t>
+          <t>83,91; 89,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,82; 93,76</t>
+          <t>85,83; 90,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>84,24; 90,0</t>
+          <t>86,54; 90,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2005-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>99,66%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>81,63%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,96; 96,0</t>
+          <t>86,8; 95,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,69</t>
+          <t>94,9; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>98,44; 100</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75,81; 92,1</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>83,62; 95,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>93,57; 99,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>96,69; 100,0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>82,9; 92,05</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>87,5; 94,35</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>92,86; 97,98</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>96,29; 99,35</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,37; 86,73</t>
+          <t>69,4; 87,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,98; 94,58</t>
+          <t>87,92; 94,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,77</t>
+          <t>95,69; 99,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>97,26; 99,43</t>
+          <t>98,29; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,22; 87,89</t>
+          <t>75,09; 87,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>89,33%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>87,81%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,12; 91,09</t>
+          <t>88,83; 94,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,54; 92,6</t>
+          <t>90,59; 95,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,85; 94,54</t>
+          <t>93,34; 97,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,35; 91,28</t>
+          <t>83,87; 91,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,68; 92,59</t>
+          <t>88,79; 94,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,19; 92,29</t>
+          <t>88,72; 94,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,1; 94,97</t>
+          <t>91,51; 97,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,26; 90,59</t>
+          <t>82,39; 90,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,88; 90,9</t>
+          <t>89,87; 93,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,28; 91,47</t>
+          <t>90,74; 94,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>89,82; 93,76</t>
+          <t>93,65; 96,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,24; 90,0</t>
+          <t>84,67; 90,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>86,65%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,09; 89,61</t>
+          <t>78,93; 89,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,79; 89,69</t>
+          <t>82,29; 91,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,88; 89,01</t>
+          <t>80,31; 88,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,02; 91,11</t>
+          <t>80,61; 89,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,98; 89,54</t>
+          <t>77,66; 88,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,76; 90,73</t>
+          <t>82,95; 91,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,03; 93,69</t>
+          <t>88,57; 95,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,26; 92,29</t>
+          <t>82,59; 91,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,23; 88,95</t>
+          <t>80,49; 87,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,91; 89,2</t>
+          <t>84,09; 90,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,83; 90,53</t>
+          <t>85,52; 91,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,54; 90,83</t>
+          <t>83,22; 89,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>86,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>89,55%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,79</t>
+          <t>81,94; 89,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,86; 92,5</t>
+          <t>81,53; 89,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,35; 92,87</t>
+          <t>82,18; 91,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,7; 90,05</t>
+          <t>85,98; 93,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,8; 90,72</t>
+          <t>82,37; 90,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,31; 92,24</t>
+          <t>81,55; 90,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,61</t>
+          <t>85,32; 92,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,86; 89,28</t>
+          <t>84,72; 92,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,59; 90,24</t>
+          <t>83,96; 89,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89,25; 91,75</t>
+          <t>82,99; 88,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 93,33</t>
+          <t>85,16; 90,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,12; 89,11</t>
+          <t>86,83; 92,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88,82%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>90,91%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,84%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>90,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>93,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>88,83%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92,18%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>86,77; 90,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89,01; 92,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89,22; 93,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85,72; 90,22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86,69; 90,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88,34; 92,18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>91,44; 94,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85,01; 89,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87,35; 90,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>89,23; 91,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90,91; 93,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86,2; 89,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP2005-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,8; 95,95</t>
+          <t>86,28; 96,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,9; 100,0</t>
+          <t>95,51; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,81; 92,1</t>
+          <t>75,37; 90,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,62; 95,3</t>
+          <t>83,98; 95,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,57; 99,34</t>
+          <t>92,83; 99,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,69; 100,0</t>
+          <t>96,79; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,4; 87,53</t>
+          <t>68,49; 87,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,92; 94,73</t>
+          <t>87,31; 94,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,69; 99,33</t>
+          <t>95,77; 99,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>98,29; 100,0</t>
+          <t>98,15; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,09; 87,34</t>
+          <t>74,98; 86,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,83; 94,37</t>
+          <t>88,62; 94,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,59; 95,98</t>
+          <t>90,52; 95,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,34; 97,57</t>
+          <t>93,75; 97,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,87; 91,79</t>
+          <t>83,86; 91,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,79; 94,74</t>
+          <t>89,62; 94,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,72; 94,86</t>
+          <t>88,45; 94,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,51; 97,05</t>
+          <t>91,64; 96,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,39; 90,74</t>
+          <t>82,35; 90,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,87; 93,9</t>
+          <t>89,9; 93,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,74; 94,74</t>
+          <t>90,3; 94,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,65; 96,72</t>
+          <t>93,43; 96,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,67; 90,55</t>
+          <t>84,72; 90,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,93; 89,01</t>
+          <t>79,28; 89,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,29; 91,23</t>
+          <t>81,11; 91,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,31; 88,8</t>
+          <t>79,91; 89,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,61; 89,89</t>
+          <t>80,92; 89,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,66; 88,14</t>
+          <t>77,1; 87,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,95; 91,66</t>
+          <t>83,14; 91,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,57; 95,2</t>
+          <t>88,58; 95,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,59; 91,26</t>
+          <t>82,54; 91,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,49; 87,58</t>
+          <t>80,21; 87,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,09; 90,38</t>
+          <t>83,98; 90,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,52; 91,06</t>
+          <t>85,57; 90,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>83,22; 89,44</t>
+          <t>83,41; 89,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,94; 89,83</t>
+          <t>82,11; 89,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,53; 89,58</t>
+          <t>81,63; 89,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,18; 91,07</t>
+          <t>82,62; 91,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,98; 93,13</t>
+          <t>86,2; 93,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,37; 90,45</t>
+          <t>82,61; 90,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,55; 90,12</t>
+          <t>82,02; 90,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,73</t>
+          <t>85,22; 93,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,72; 92,08</t>
+          <t>85,08; 92,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,96; 89,52</t>
+          <t>83,7; 89,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,99; 88,84</t>
+          <t>83,15; 88,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85,16; 90,94</t>
+          <t>85,08; 90,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,83; 92,02</t>
+          <t>86,98; 91,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,77; 90,61</t>
+          <t>86,6; 90,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,01; 92,66</t>
+          <t>88,87; 92,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,22; 93,01</t>
+          <t>89,28; 92,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,72; 90,22</t>
+          <t>85,52; 90,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,64</t>
+          <t>86,76; 90,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,34; 92,18</t>
+          <t>88,32; 92,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,44; 94,58</t>
+          <t>91,44; 94,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,01; 89,54</t>
+          <t>85,1; 89,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,35; 90,16</t>
+          <t>87,36; 90,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,23; 91,88</t>
+          <t>89,33; 91,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>90,91; 93,33</t>
+          <t>90,93; 93,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>86,2; 89,29</t>
+          <t>86,05; 89,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2005-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2005-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,44 +656,44 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>90,74%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>97,22%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79,22%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>92,63%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>98,67%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>84,56%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>90,74%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>97,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>99,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>78,89%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>91,78%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>81,87%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,28; 96,66</t>
+          <t>84,47; 95,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>95,51; 100,0</t>
+          <t>93,65; 99,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>96,29; 100,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>69,2; 87,54</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86,76; 96,08</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>95,87; 100,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>98,44; 100</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>75,37; 90,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>83,98; 95,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>92,83; 99,09</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>96,79; 100,0</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,49; 87,22</t>
+          <t>76,12; 91,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 94,76</t>
+          <t>87,42; 94,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,77; 99,21</t>
+          <t>95,71; 99,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>98,15; 100,0</t>
+          <t>98,29; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>74,98; 86,78</t>
+          <t>75,46; 87,08</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>92,46%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>91,96%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94,71%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87,52%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>91,75%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>93,75%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>95,94%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>88,34%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>92,46%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>91,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>94,71%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>87,85%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,62; 94,14</t>
+          <t>89,3; 94,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,52; 95,85</t>
+          <t>88,21; 94,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,75; 97,75</t>
+          <t>91,76; 97,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,86; 91,82</t>
+          <t>82,57; 90,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,62; 94,73</t>
+          <t>88,82; 94,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,45; 94,58</t>
+          <t>90,74; 96,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,64; 96,98</t>
+          <t>93,28; 97,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,35; 90,91</t>
+          <t>83,72; 91,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,9; 93,9</t>
+          <t>89,88; 93,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,3; 94,56</t>
+          <t>90,66; 94,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,43; 96,88</t>
+          <t>93,54; 96,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,72; 90,46</t>
+          <t>84,87; 90,38</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>83,43%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>87,72%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>92,23%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87,6%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>84,63%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>87,03%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>84,82%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>85,92%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>83,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>87,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>92,23%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>86,61%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,28; 89,16</t>
+          <t>77,22; 88,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,11; 91,14</t>
+          <t>83,1; 91,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,91; 89,05</t>
+          <t>88,74; 95,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,92; 89,81</t>
+          <t>82,58; 91,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,1; 87,7</t>
+          <t>79,53; 89,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,14; 91,75</t>
+          <t>82,29; 91,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,58; 95,03</t>
+          <t>79,98; 89,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,54; 91,36</t>
+          <t>80,82; 89,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,21; 87,74</t>
+          <t>79,86; 87,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>83,98; 90,56</t>
+          <t>83,76; 90,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,57; 90,94</t>
+          <t>85,73; 91,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>83,41; 89,26</t>
+          <t>83,56; 89,95</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>86,97%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>86,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89,38%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>89,66%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>86,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>85,82%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>86,92%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>90,06%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>86,97%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>86,45%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>89,38%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>89,82%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,11; 89,68</t>
+          <t>82,98; 90,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,63; 89,59</t>
+          <t>81,62; 90,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,62; 91,01</t>
+          <t>84,82; 92,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,2; 93,05</t>
+          <t>85,93; 93,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,61; 90,61</t>
+          <t>82,57; 90,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,02; 90,6</t>
+          <t>81,25; 89,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,22; 93,18</t>
+          <t>81,63; 90,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,08; 92,17</t>
+          <t>85,79; 93,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,7; 89,3</t>
+          <t>83,42; 89,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,15; 88,97</t>
+          <t>82,69; 88,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85,08; 90,92</t>
+          <t>84,99; 90,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,98; 91,85</t>
+          <t>87,46; 92,33</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>88,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>90,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87,82%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>88,82%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>90,91%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>91,19%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>88,11%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>88,84%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>90,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>93,23%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>87,91%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,6; 90,51</t>
+          <t>86,8; 90,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,87; 92,52</t>
+          <t>88,31; 92,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,28; 92,86</t>
+          <t>91,3; 94,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,52; 90,01</t>
+          <t>85,27; 89,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,76; 90,76</t>
+          <t>86,69; 90,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,32; 92,31</t>
+          <t>88,86; 92,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,44; 94,71</t>
+          <t>89,35; 92,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85,1; 89,54</t>
+          <t>85,67; 90,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,36; 90,24</t>
+          <t>87,59; 90,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,33; 91,94</t>
+          <t>89,25; 91,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>90,93; 93,34</t>
+          <t>90,9; 93,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>86,05; 89,19</t>
+          <t>86,23; 89,35</t>
         </is>
       </c>
     </row>
